--- a/50 Questions.xlsx
+++ b/50 Questions.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afrin\OneDrive\Desktop\NSU\9th Semester\CSE299\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F9F8F2-6526-407F-82C4-16C2C6BF26B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Questions</t>
   </si>
@@ -62,37 +71,103 @@
   </si>
   <si>
     <t>Total marks</t>
+  </si>
+  <si>
+    <t>What are the causes of World War II? Explain.</t>
+  </si>
+  <si>
+    <t>Why did Nazi Germany and Imperial Japan surrender in 1945?</t>
+  </si>
+  <si>
+    <t>When did the Bangladesh Liberation War start?</t>
+  </si>
+  <si>
+    <t>Write   two   basic   difference   between   Gentlemen   Opium   Monopoly   and   BengalGovernment Opium Monopoly.</t>
+  </si>
+  <si>
+    <t>Which one was the black gold of India?Why?</t>
+  </si>
+  <si>
+    <t>Why the battle of palashi was called a fateful battle?</t>
+  </si>
+  <si>
+    <t>When did Bangladesh gain independence?</t>
+  </si>
+  <si>
+    <t>What did East Pakistan change its name to in 1971?</t>
+  </si>
+  <si>
+    <t>What is the difference between an enzyme and substrate?</t>
+  </si>
+  <si>
+    <t>Why is DNA replication necessary?</t>
+  </si>
+  <si>
+    <t>Define geography and environmental geography</t>
+  </si>
+  <si>
+    <t>Discuss the various types of region and their functions in Bangladesh</t>
+  </si>
+  <si>
+    <t>Discuss the characteristics of agriculture in Bangladesh</t>
+  </si>
+  <si>
+    <t>What do you understand by arsenic pollution in ground water? 2</t>
+  </si>
+  <si>
+    <t>Discuss the main greenhouses gases (GHG) and their effects on environment?</t>
+  </si>
+  <si>
+    <t>What are the characteristics and distinctions between gnosticism, epicureanism, and stoicism?</t>
+  </si>
+  <si>
+    <t>Why does process philosophy need subjective aims?</t>
+  </si>
+  <si>
+    <t>What did Epicurus say about virtue?</t>
+  </si>
+  <si>
+    <t>Why did Greek philosophers only have first names?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,7 +175,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -110,41 +185,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -334,20 +415,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +486,103 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>